--- a/biology/Zoologie/Aigrette_bleue/Aigrette_bleue.xlsx
+++ b/biology/Zoologie/Aigrette_bleue/Aigrette_bleue.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Egretta caerulea
-L’Aigrette bleue (Egretta caerulea) est une espèce d'oiseaux de la famille des Ardéidés[1]. Elle est parfois placée dans le genre monospécifique Florida[2].
+L’Aigrette bleue (Egretta caerulea) est une espèce d'oiseaux de la famille des Ardéidés. Elle est parfois placée dans le genre monospécifique Florida.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'aigrette bleue mesure 51 à 76 cm pour une masse de 350 g environ. Sa coloration générale est bleu mauve avec la tête et le cou violacés. Le bec grisâtre présente une large base et une extrémité plus sombre. Il apparaît légèrement incurvé.
 Le jeune est tout blanc avec les extrémités des rémiges primaires grises et les pattes verdâtre pâle. L'immature plus âgé se tache progressivement de gris bleu.
@@ -544,7 +558,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce vit en Amérique.
 </t>
@@ -575,7 +591,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau fréquente principalement les zones humides intérieures : étangs, lacs, marais, prés inondés et rizières. Il se rencontre aussi dans les milieux saumâtres et côtiers, mangroves par exemple.
 Il monte en altitude jusqu'à 3 000 m dans les Andes, exceptionnellement jusqu'à 3 750 m.
@@ -607,7 +625,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'aigrette bleue se nourrit surtout d'arthropodes aquatiques (crabes et insectes aquatiques) mais aussi de coléoptères, de grillons, de criquets et d'araignées.
 </t>
@@ -638,7 +658,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>del Hoyo J., Elliott A. &amp; Sargatal J. (1992) Handbook of the Birds of the World, Volume 1, Ostrich to Ducks. ICBP, Lynx Edicions, Barcelona, 696 p.</t>
         </is>
